--- a/Lab_3/src/results.xlsx
+++ b/Lab_3/src/results.xlsx
@@ -523,46 +523,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
         <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>6</v>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -660,13 +660,13 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -679,49 +679,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -731,49 +731,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="M6" t="n">
-        <v>8</v>
-      </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -783,49 +783,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
         <v>2</v>
       </c>
-      <c r="M8" t="n">
-        <v>10</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -887,49 +887,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>14</v>
       </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
       <c r="I9" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>8</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -939,16 +939,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -963,22 +963,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1003,22 +1003,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -1043,46 +1043,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
         <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1095,43 +1095,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>4</v>
@@ -1147,31 +1147,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N14" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1202,28 +1202,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1232,16 +1232,16 @@
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1251,49 +1251,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -9012,7 +9012,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -9114,7 +9114,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -10134,7 +10134,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -10270,7 +10270,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -10576,7 +10576,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -10695,7 +10695,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -10712,7 +10712,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -11069,7 +11069,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -11222,7 +11222,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -11358,7 +11358,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -11630,7 +11630,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -11647,7 +11647,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -11834,7 +11834,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -11987,7 +11987,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12276,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12446,7 +12446,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12514,7 +12514,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -12684,7 +12684,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12752,7 +12752,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12786,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13296,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -13364,7 +13364,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13415,7 +13415,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -13619,7 +13619,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13670,7 +13670,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -13721,7 +13721,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13755,7 +13755,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -13772,7 +13772,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -13840,7 +13840,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13908,7 +13908,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14010,7 +14010,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -14027,7 +14027,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14044,7 +14044,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14112,7 +14112,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -14129,7 +14129,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -14197,7 +14197,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -14248,7 +14248,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -14401,7 +14401,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -14503,7 +14503,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -14520,7 +14520,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -14571,7 +14571,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14758,7 +14758,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14826,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14911,7 +14911,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14928,7 +14928,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -14962,7 +14962,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -15013,7 +15013,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -15132,7 +15132,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -15200,7 +15200,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -15251,7 +15251,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -15489,7 +15489,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -15642,7 +15642,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -15914,7 +15914,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -16067,7 +16067,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -16101,7 +16101,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -16186,7 +16186,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -16203,7 +16203,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -16220,7 +16220,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -16271,7 +16271,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -16594,7 +16594,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -16611,7 +16611,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -16662,7 +16662,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -16679,7 +16679,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -16747,7 +16747,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -16798,7 +16798,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -16815,7 +16815,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -16883,7 +16883,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -16934,7 +16934,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -16951,7 +16951,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -16968,7 +16968,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -17053,7 +17053,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -17087,7 +17087,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17104,7 +17104,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17138,7 +17138,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -17172,7 +17172,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -17206,7 +17206,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -17325,7 +17325,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17393,7 +17393,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17410,7 +17410,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17427,7 +17427,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17444,7 +17444,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -17461,7 +17461,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17478,7 +17478,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17529,7 +17529,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17563,7 +17563,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -17614,7 +17614,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17682,7 +17682,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -17699,7 +17699,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17801,7 +17801,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17886,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17903,7 +17903,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -17937,7 +17937,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -17971,7 +17971,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -18005,7 +18005,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -18022,7 +18022,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -18039,7 +18039,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -18056,7 +18056,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -18090,7 +18090,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -18141,7 +18141,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -18175,7 +18175,7 @@
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -18379,7 +18379,7 @@
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18396,7 @@
       </c>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -18413,7 +18413,7 @@
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -18430,7 +18430,7 @@
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -18532,7 +18532,7 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -18600,7 +18600,7 @@
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -18651,7 +18651,7 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -18702,7 +18702,7 @@
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -18719,7 +18719,7 @@
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -18804,7 +18804,7 @@
       </c>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -18855,7 +18855,7 @@
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18906,7 @@
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -18940,7 +18940,7 @@
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -18957,7 +18957,7 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19008,7 +19008,7 @@
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -19059,7 +19059,7 @@
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -19093,7 +19093,7 @@
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -19178,7 +19178,7 @@
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -19246,7 +19246,7 @@
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19416,7 @@
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19450,7 +19450,7 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19552,7 +19552,7 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -19569,7 +19569,7 @@
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -19603,7 +19603,7 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19620,7 +19620,7 @@
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -19654,7 +19654,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19722,7 +19722,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -19739,7 +19739,7 @@
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19790,7 +19790,7 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -19807,7 +19807,7 @@
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -19841,7 +19841,7 @@
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19858,7 +19858,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -19960,7 +19960,7 @@
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -19977,7 +19977,7 @@
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -19994,7 +19994,7 @@
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -20096,7 +20096,7 @@
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -20113,7 +20113,7 @@
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -20164,7 +20164,7 @@
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20198,7 +20198,7 @@
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -20215,7 +20215,7 @@
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20266,7 +20266,7 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20300,7 +20300,7 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -20351,7 +20351,7 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -20419,7 +20419,7 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -20470,7 +20470,7 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20487,7 +20487,7 @@
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Office</t>
         </is>
       </c>
     </row>
@@ -20538,7 +20538,7 @@
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -20606,7 +20606,7 @@
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20640,7 +20640,7 @@
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -20674,7 +20674,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -20708,7 +20708,7 @@
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -20725,7 +20725,7 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -20742,7 +20742,7 @@
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -20776,7 +20776,7 @@
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20844,7 +20844,7 @@
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -20878,7 +20878,7 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20912,7 +20912,7 @@
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20946,7 +20946,7 @@
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -20963,7 +20963,7 @@
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -20980,7 +20980,7 @@
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21014,7 +21014,7 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21031,7 +21031,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -21065,7 +21065,7 @@
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21184,7 +21184,7 @@
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21218,7 +21218,7 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -21252,7 +21252,7 @@
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -21286,7 +21286,7 @@
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -21303,7 +21303,7 @@
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -21354,7 +21354,7 @@
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -21371,7 +21371,7 @@
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -21422,7 +21422,7 @@
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -21575,7 +21575,7 @@
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21609,7 +21609,7 @@
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -21694,7 +21694,7 @@
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21728,7 +21728,7 @@
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -21745,7 +21745,7 @@
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -21762,7 +21762,7 @@
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21796,7 +21796,7 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21813,7 +21813,7 @@
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21830,7 +21830,7 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -21864,7 +21864,7 @@
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -21898,7 +21898,7 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -21915,7 +21915,7 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21932,7 +21932,7 @@
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -21949,7 +21949,7 @@
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21966,7 @@
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -21983,7 +21983,7 @@
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -22051,7 +22051,7 @@
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -22068,7 +22068,7 @@
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -22136,7 +22136,7 @@
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22187,7 +22187,7 @@
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -22204,7 +22204,7 @@
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -22272,7 +22272,7 @@
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22306,7 +22306,7 @@
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -22340,7 +22340,7 @@
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -22374,7 +22374,7 @@
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -22391,7 +22391,7 @@
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22425,7 @@
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22493,7 @@
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22561,7 +22561,7 @@
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -22612,7 +22612,7 @@
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22646,7 +22646,7 @@
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22663,7 +22663,7 @@
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -22714,7 +22714,7 @@
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -22799,7 +22799,7 @@
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -22816,7 +22816,7 @@
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -22867,7 +22867,7 @@
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -22901,7 +22901,7 @@
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -22918,7 +22918,7 @@
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -22935,7 +22935,7 @@
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -23020,7 +23020,7 @@
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23037,7 +23037,7 @@
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -23071,7 +23071,7 @@
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23088,7 +23088,7 @@
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -23105,7 +23105,7 @@
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -23139,7 +23139,7 @@
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23241,7 +23241,7 @@
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23275,7 +23275,7 @@
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -23292,7 +23292,7 @@
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -23343,7 +23343,7 @@
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -23360,7 +23360,7 @@
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -23428,7 +23428,7 @@
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -23479,7 +23479,7 @@
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -23547,7 +23547,7 @@
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -23581,7 +23581,7 @@
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -23598,7 +23598,7 @@
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -23632,7 +23632,7 @@
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -23649,7 +23649,7 @@
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -23717,7 +23717,7 @@
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -23802,7 +23802,7 @@
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23853,7 +23853,7 @@
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -23904,7 +23904,7 @@
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23921,7 +23921,7 @@
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -23938,7 +23938,7 @@
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -23989,7 +23989,7 @@
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24023,7 +24023,7 @@
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24040,7 +24040,7 @@
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="C1339" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -24142,7 +24142,7 @@
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24193,7 +24193,7 @@
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24210,7 +24210,7 @@
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -24227,7 +24227,7 @@
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -24278,7 +24278,7 @@
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -24312,7 +24312,7 @@
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -24363,7 +24363,7 @@
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -24380,7 +24380,7 @@
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Kitchen</t>
         </is>
       </c>
     </row>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -24465,7 +24465,7 @@
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24516,7 +24516,7 @@
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -24584,7 +24584,7 @@
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -24618,7 +24618,7 @@
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24669,7 +24669,7 @@
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24703,7 +24703,7 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -24737,7 +24737,7 @@
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24771,7 +24771,7 @@
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -24941,7 +24941,7 @@
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -24958,7 +24958,7 @@
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -24992,7 +24992,7 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -25026,7 +25026,7 @@
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -25060,7 +25060,7 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
@@ -25077,7 +25077,7 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -25094,7 +25094,7 @@
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Suburb</t>
         </is>
       </c>
     </row>
@@ -25111,7 +25111,7 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -25128,7 +25128,7 @@
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -25145,7 +25145,7 @@
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -25162,7 +25162,7 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -25179,7 +25179,7 @@
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -25196,7 +25196,7 @@
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -25213,7 +25213,7 @@
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -25230,7 +25230,7 @@
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -25247,7 +25247,7 @@
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -25281,7 +25281,7 @@
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -25298,7 +25298,7 @@
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Street</t>
         </is>
       </c>
     </row>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -25502,7 +25502,7 @@
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -25536,7 +25536,7 @@
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -25604,7 +25604,7 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -25638,7 +25638,7 @@
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -25655,7 +25655,7 @@
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -25757,7 +25757,7 @@
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Living room</t>
         </is>
       </c>
     </row>
@@ -25774,7 +25774,7 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -25825,7 +25825,7 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Store</t>
         </is>
       </c>
     </row>
@@ -25876,7 +25876,7 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -25978,7 +25978,7 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -25995,7 +25995,7 @@
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -26029,7 +26029,7 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Bedroom</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -26114,7 +26114,7 @@
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -26148,7 +26148,7 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -26165,7 +26165,7 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -26182,7 +26182,7 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Mountain</t>
+          <t>Industrial</t>
         </is>
       </c>
     </row>
@@ -26233,7 +26233,7 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -26284,7 +26284,7 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -26301,7 +26301,7 @@
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -26318,7 +26318,7 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -26352,7 +26352,7 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -26420,7 +26420,7 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Coast</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -26437,7 +26437,7 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -26505,7 +26505,7 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Highway</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -26522,7 +26522,7 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Living room</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -26539,7 +26539,7 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Tall building</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Inside city</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
@@ -26573,7 +26573,7 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Inside city</t>
         </is>
       </c>
     </row>
@@ -26624,7 +26624,7 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Open country</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
@@ -26641,7 +26641,7 @@
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -26658,7 +26658,7 @@
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -26726,7 +26726,7 @@
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Open country</t>
         </is>
       </c>
     </row>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Tall building</t>
+          <t>Highway</t>
         </is>
       </c>
     </row>
@@ -26794,7 +26794,7 @@
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Suburb</t>
+          <t>Coast</t>
         </is>
       </c>
     </row>
